--- a/nr-update-fr-core/ig/StructureDefinition-mesures-reason-for-measurement.xlsx
+++ b/nr-update-fr-core/ig/StructureDefinition-mesures-reason-for-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T10:30:49+00:00</t>
+    <t>2024-12-12T13:22:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-fr-core/ig/StructureDefinition-mesures-reason-for-measurement.xlsx
+++ b/nr-update-fr-core/ig/StructureDefinition-mesures-reason-for-measurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T13:22:26+00:00</t>
+    <t>2024-12-12T13:22:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
